--- a/Варианты/3 Вариант/Файлы/18/18var04.xlsx
+++ b/Варианты/3 Вариант/Файлы/18/18var04.xlsx
@@ -1,25 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10315"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1/Desktop/School/Информатика/Варианты/3 Вариант/Файлы/18/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368F0C47-99CD-594D-B91B-32D6FD18C33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8960"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -29,15 +44,39 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAC4EF5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -185,35 +224,109 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFAC4EF5"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>366183</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>184151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>143933</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>6662</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45EECB97-B5FF-E018-5B53-5CFADC6136C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14894983" y="963084"/>
+          <a:ext cx="7702550" cy="4785886"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -471,1265 +584,2912 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="142" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="W35" sqref="W35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="16384" width="8.7265625" style="4"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
         <v>9</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="14">
         <v>71</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="14">
         <v>34</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="14">
         <v>52</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="14">
         <v>20</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="14">
         <v>62</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="14">
         <v>56</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="14">
         <v>16</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="14">
         <v>85</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="14">
         <v>96</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="14">
         <v>77</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="14">
         <v>69</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="14">
         <v>86</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="14">
         <v>94</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="14">
         <v>54</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="14">
         <v>59</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="14">
         <v>88</v>
       </c>
-      <c r="R1" s="2">
+      <c r="R1" s="14">
         <v>95</v>
       </c>
-      <c r="S1" s="2">
+      <c r="S1" s="14">
         <v>61</v>
       </c>
-      <c r="T1" s="3">
+      <c r="T1" s="15">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="5">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="12">
         <v>61</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2">
         <v>66</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2">
         <v>13</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2">
         <v>12</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2">
         <v>10</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2">
         <v>39</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2">
         <v>7</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2">
         <v>25</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2">
         <v>26</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2">
         <v>55</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2">
         <v>36</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2">
         <v>25</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2">
         <v>5</v>
       </c>
-      <c r="N2" s="6">
+      <c r="N2">
         <v>15</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2">
         <v>56</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2">
         <v>58</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="Q2">
         <v>67</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2">
         <v>24</v>
       </c>
-      <c r="S2" s="6">
+      <c r="S2">
         <v>38</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="2">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15" thickBot="1">
-      <c r="A3" s="5">
+    <row r="3" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
         <v>100</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <v>83</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3">
         <v>75</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3">
         <v>74</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="3">
         <v>88</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3">
         <v>84</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3">
         <v>97</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3">
         <v>6</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3">
         <v>50</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3">
         <v>26</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3">
         <v>9</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3">
         <v>23</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3">
         <v>63</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3">
         <v>90</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3">
         <v>47</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3">
         <v>96</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3">
         <v>39</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3">
         <v>96</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3">
         <v>46</v>
       </c>
-      <c r="T3" s="7">
+      <c r="T3" s="2">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15" thickTop="1">
-      <c r="A4" s="5">
+    <row r="4" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
         <v>7</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>96</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4">
         <v>6</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4">
         <v>9</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="3">
         <v>86</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4">
         <v>23</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4">
         <v>69</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4">
         <v>18</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4">
         <v>25</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4">
         <v>5</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4">
         <v>60</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="4">
         <v>25</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="4">
         <v>2</v>
       </c>
-      <c r="N4" s="10">
+      <c r="N4" s="5">
         <v>71</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4">
         <v>98</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4">
         <v>78</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4">
         <v>64</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4">
         <v>70</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4">
         <v>93</v>
       </c>
-      <c r="T4" s="7">
+      <c r="T4" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="5">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="12">
         <v>10</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>19</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5">
         <v>42</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5">
         <v>11</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="3">
         <v>89</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5">
         <v>83</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5">
         <v>93</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5">
         <v>33</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5">
         <v>70</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5">
         <v>98</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5">
         <v>62</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5">
         <v>45</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="3">
         <v>95</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5">
         <v>81</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5">
         <v>18</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5">
         <v>54</v>
       </c>
-      <c r="R5" s="6">
+      <c r="R5">
         <v>30</v>
       </c>
-      <c r="S5" s="6">
+      <c r="S5">
         <v>87</v>
       </c>
-      <c r="T5" s="7">
+      <c r="T5" s="2">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="5">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
         <v>96</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>80</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6">
         <v>57</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6">
         <v>69</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="3">
         <v>31</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6">
         <v>39</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6">
         <v>7</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6">
         <v>49</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6">
         <v>90</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6">
         <v>17</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6">
         <v>20</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6">
         <v>56</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6">
         <v>62</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="3">
         <v>12</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6">
         <v>39</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6">
         <v>81</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6">
         <v>82</v>
       </c>
-      <c r="R6" s="6">
+      <c r="R6">
         <v>30</v>
       </c>
-      <c r="S6" s="6">
+      <c r="S6">
         <v>71</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T6" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="5">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
         <v>29</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7">
         <v>19</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7">
         <v>35</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <v>64</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="3">
         <v>20</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7">
         <v>88</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7">
         <v>89</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7">
         <v>2</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7">
         <v>17</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7">
         <v>33</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7">
         <v>89</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7">
         <v>16</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7">
         <v>2</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="3">
         <v>87</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7">
         <v>94</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7">
         <v>56</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7">
         <v>18</v>
       </c>
-      <c r="R7" s="6">
+      <c r="R7">
         <v>80</v>
       </c>
-      <c r="S7" s="6">
+      <c r="S7">
         <v>59</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="2">
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="5">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
         <v>37</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8">
         <v>48</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8">
         <v>75</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8">
         <v>49</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="3">
         <v>44</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8">
         <v>13</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8">
         <v>37</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8">
         <v>26</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8">
         <v>41</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8">
         <v>55</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8">
         <v>7</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8">
         <v>26</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8">
         <v>84</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="3">
         <v>30</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8">
         <v>41</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8">
         <v>94</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8">
         <v>60</v>
       </c>
-      <c r="R8" s="6">
+      <c r="R8">
         <v>51</v>
       </c>
-      <c r="S8" s="6">
+      <c r="S8">
         <v>70</v>
       </c>
-      <c r="T8" s="7">
+      <c r="T8" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="5">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
         <v>33</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9">
         <v>66</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9">
         <v>72</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9">
         <v>58</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="3">
         <v>17</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9">
         <v>81</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9">
         <v>48</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9">
         <v>73</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9">
         <v>100</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9">
         <v>70</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9">
         <v>84</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9">
         <v>67</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9">
         <v>30</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="3">
         <v>85</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9">
         <v>98</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9">
         <v>81</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9">
         <v>42</v>
       </c>
-      <c r="R9" s="6">
+      <c r="R9">
         <v>16</v>
       </c>
-      <c r="S9" s="6">
+      <c r="S9">
         <v>7</v>
       </c>
-      <c r="T9" s="7">
+      <c r="T9" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15" thickBot="1">
-      <c r="A10" s="5">
+    <row r="10" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
         <v>97</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10">
         <v>87</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="6">
         <v>29</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="6">
         <v>70</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="8">
         <v>45</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10">
         <v>64</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10">
         <v>53</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10">
         <v>75</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10">
         <v>29</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10">
         <v>16</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10">
         <v>26</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10">
         <v>53</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10">
         <v>13</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="3">
         <v>72</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10">
         <v>80</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10">
         <v>64</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10">
         <v>80</v>
       </c>
-      <c r="R10" s="6">
+      <c r="R10">
         <v>46</v>
       </c>
-      <c r="S10" s="6">
+      <c r="S10">
         <v>66</v>
       </c>
-      <c r="T10" s="7">
+      <c r="T10" s="2">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15" thickTop="1">
-      <c r="A11" s="5">
+    <row r="11" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
         <v>74</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11">
         <v>27</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11">
         <v>82</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11">
         <v>34</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11">
         <v>32</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11">
         <v>4</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11">
         <v>77</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11">
         <v>41</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11">
         <v>74</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11">
         <v>34</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11">
         <v>92</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11">
         <v>30</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11">
         <v>44</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="3">
         <v>93</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11">
         <v>36</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11">
         <v>38</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11">
         <v>22</v>
       </c>
-      <c r="R11" s="6">
+      <c r="R11">
         <v>16</v>
       </c>
-      <c r="S11" s="6">
+      <c r="S11">
         <v>67</v>
       </c>
-      <c r="T11" s="7">
+      <c r="T11" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="5">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
         <v>5</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12">
         <v>81</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12">
         <v>75</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12">
         <v>38</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12">
         <v>20</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12">
         <v>93</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12">
         <v>39</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12">
         <v>75</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12">
         <v>61</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12">
         <v>57</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12">
         <v>70</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12">
         <v>89</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12">
         <v>51</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="3">
         <v>92</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12">
         <v>15</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12">
         <v>54</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12">
         <v>89</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12">
         <v>44</v>
       </c>
-      <c r="S12" s="6">
+      <c r="S12">
         <v>75</v>
       </c>
-      <c r="T12" s="7">
+      <c r="T12" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="5">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
         <v>85</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13">
         <v>66</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13">
         <v>25</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13">
         <v>72</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13">
         <v>100</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13">
         <v>49</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13">
         <v>95</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13">
         <v>82</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13">
         <v>60</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13">
         <v>4</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13">
         <v>32</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13">
         <v>38</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13">
         <v>30</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="3">
         <v>89</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13">
         <v>84</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13">
         <v>87</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13">
         <v>12</v>
       </c>
-      <c r="R13" s="6">
+      <c r="R13">
         <v>5</v>
       </c>
-      <c r="S13" s="6">
+      <c r="S13">
         <v>12</v>
       </c>
-      <c r="T13" s="7">
+      <c r="T13" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" thickBot="1">
-      <c r="A14" s="5">
+    <row r="14" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
         <v>68</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14">
         <v>33</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14">
         <v>35</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14">
         <v>49</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14">
         <v>78</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14">
         <v>24</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14">
         <v>30</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14">
         <v>54</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14">
         <v>85</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14">
         <v>85</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14">
         <v>42</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14">
         <v>69</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14">
         <v>22</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="10">
         <v>48</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14">
         <v>75</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14">
         <v>79</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14">
         <v>69</v>
       </c>
-      <c r="R14" s="6">
+      <c r="R14">
         <v>68</v>
       </c>
-      <c r="S14" s="6">
+      <c r="S14">
         <v>87</v>
       </c>
-      <c r="T14" s="7">
+      <c r="T14" s="2">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="15" thickTop="1">
-      <c r="A15" s="5">
+    <row r="15" spans="1:20" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
         <v>69</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15">
         <v>76</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15">
         <v>91</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15">
         <v>8</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15">
         <v>54</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15">
         <v>20</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="4">
         <v>19</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="4">
         <v>58</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="5">
         <v>4</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15">
         <v>9</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15">
         <v>50</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15">
         <v>11</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="4">
         <v>73</v>
       </c>
-      <c r="N15" s="10">
+      <c r="N15" s="5">
         <v>13</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15">
         <v>36</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15">
         <v>25</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15">
         <v>78</v>
       </c>
-      <c r="R15" s="6">
+      <c r="R15">
         <v>67</v>
       </c>
-      <c r="S15" s="6">
+      <c r="S15">
         <v>96</v>
       </c>
-      <c r="T15" s="7">
+      <c r="T15" s="2">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="5">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
         <v>10</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16">
         <v>93</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16">
         <v>12</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16">
         <v>70</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16">
         <v>96</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16">
         <v>93</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16">
         <v>39</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16">
         <v>53</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="3">
         <v>22</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16">
         <v>74</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16">
         <v>60</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16">
         <v>47</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16">
         <v>86</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16">
         <v>50</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16">
         <v>68</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16">
         <v>58</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16">
         <v>11</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R16">
         <v>45</v>
       </c>
-      <c r="S16" s="6">
+      <c r="S16">
         <v>5</v>
       </c>
-      <c r="T16" s="7">
+      <c r="T16" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="5">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="12">
         <v>49</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17">
         <v>30</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17">
         <v>19</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17">
         <v>55</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17">
         <v>24</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17">
         <v>64</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17">
         <v>30</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17">
         <v>33</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="3">
         <v>3</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17">
         <v>87</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17">
         <v>85</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17">
         <v>68</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17">
         <v>42</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17">
         <v>44</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17">
         <v>40</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17">
         <v>81</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q17">
         <v>25</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17">
         <v>62</v>
       </c>
-      <c r="S17" s="6">
+      <c r="S17">
         <v>44</v>
       </c>
-      <c r="T17" s="7">
+      <c r="T17" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="5">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
         <v>90</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18">
         <v>35</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18">
         <v>41</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18">
         <v>88</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18">
         <v>50</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18">
         <v>18</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18">
         <v>59</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18">
         <v>67</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="3">
         <v>90</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18">
         <v>98</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18">
         <v>92</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18">
         <v>86</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18">
         <v>98</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18">
         <v>7</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18">
         <v>9</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18">
         <v>15</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="Q18">
         <v>87</v>
       </c>
-      <c r="R18" s="6">
+      <c r="R18">
         <v>40</v>
       </c>
-      <c r="S18" s="6">
+      <c r="S18">
         <v>39</v>
       </c>
-      <c r="T18" s="7">
+      <c r="T18" s="2">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="5">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="12">
         <v>57</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19">
         <v>60</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19">
         <v>94</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19">
         <v>16</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19">
         <v>60</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19">
         <v>86</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19">
         <v>10</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19">
         <v>97</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="3">
         <v>77</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19">
         <v>55</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19">
         <v>67</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19">
         <v>63</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19">
         <v>24</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19">
         <v>1</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19">
         <v>80</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19">
         <v>2</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q19">
         <v>42</v>
       </c>
-      <c r="R19" s="6">
+      <c r="R19">
         <v>11</v>
       </c>
-      <c r="S19" s="6">
+      <c r="S19">
         <v>95</v>
       </c>
-      <c r="T19" s="7">
+      <c r="T19" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="15" thickBot="1">
+    <row r="20" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>40</v>
       </c>
-      <c r="B20" s="14">
+      <c r="B20" s="7">
         <v>66</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="7">
         <v>23</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="7">
         <v>1</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="7">
         <v>57</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="7">
         <v>55</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="7">
         <v>8</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="7">
         <v>8</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I20" s="9">
         <v>29</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J20" s="7">
         <v>46</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="7">
         <v>7</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="7">
         <v>93</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M20" s="7">
         <v>33</v>
       </c>
-      <c r="N20" s="14">
+      <c r="N20" s="7">
         <v>81</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O20" s="7">
         <v>33</v>
       </c>
-      <c r="P20" s="14">
+      <c r="P20" s="7">
         <v>86</v>
       </c>
-      <c r="Q20" s="14">
+      <c r="Q20" s="7">
         <v>6</v>
       </c>
-      <c r="R20" s="14">
+      <c r="R20" s="7">
         <v>59</v>
       </c>
-      <c r="S20" s="14">
+      <c r="S20" s="7">
         <v>73</v>
       </c>
-      <c r="T20" s="16">
+      <c r="T20" s="11">
         <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <f>A1</f>
+        <v>9</v>
+      </c>
+      <c r="B23" s="14">
+        <f>B1+A23</f>
+        <v>80</v>
+      </c>
+      <c r="C23" s="14">
+        <f t="shared" ref="C23:T23" si="0">C1+B23</f>
+        <v>114</v>
+      </c>
+      <c r="D23" s="14">
+        <f t="shared" si="0"/>
+        <v>166</v>
+      </c>
+      <c r="E23" s="14">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+      <c r="F23" s="14">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="G23" s="14">
+        <f t="shared" si="0"/>
+        <v>304</v>
+      </c>
+      <c r="H23" s="14">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+      <c r="I23" s="14">
+        <f t="shared" si="0"/>
+        <v>405</v>
+      </c>
+      <c r="J23" s="14">
+        <f t="shared" si="0"/>
+        <v>501</v>
+      </c>
+      <c r="K23" s="14">
+        <f t="shared" si="0"/>
+        <v>578</v>
+      </c>
+      <c r="L23" s="14">
+        <f t="shared" si="0"/>
+        <v>647</v>
+      </c>
+      <c r="M23" s="14">
+        <f t="shared" si="0"/>
+        <v>733</v>
+      </c>
+      <c r="N23" s="14">
+        <f t="shared" si="0"/>
+        <v>827</v>
+      </c>
+      <c r="O23" s="14">
+        <f t="shared" si="0"/>
+        <v>881</v>
+      </c>
+      <c r="P23" s="14">
+        <f t="shared" si="0"/>
+        <v>940</v>
+      </c>
+      <c r="Q23" s="14">
+        <f t="shared" si="0"/>
+        <v>1028</v>
+      </c>
+      <c r="R23" s="14">
+        <f t="shared" si="0"/>
+        <v>1123</v>
+      </c>
+      <c r="S23" s="14">
+        <f t="shared" si="0"/>
+        <v>1184</v>
+      </c>
+      <c r="T23" s="15">
+        <f t="shared" si="0"/>
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="12">
+        <f>A2+A23</f>
+        <v>70</v>
+      </c>
+      <c r="B24">
+        <f>MIN(A24,B23)+B2</f>
+        <v>136</v>
+      </c>
+      <c r="C24">
+        <f>MIN(B24,C23)+C2</f>
+        <v>127</v>
+      </c>
+      <c r="D24">
+        <f>MIN(C24,D23)+D2</f>
+        <v>139</v>
+      </c>
+      <c r="E24">
+        <f>MIN(D24,E23)+E2</f>
+        <v>149</v>
+      </c>
+      <c r="F24">
+        <f>MIN(E24,F23)+F2</f>
+        <v>188</v>
+      </c>
+      <c r="G24">
+        <f>MIN(F24,G23)+G2</f>
+        <v>195</v>
+      </c>
+      <c r="H24">
+        <f>MIN(G24,H23)+H2</f>
+        <v>220</v>
+      </c>
+      <c r="I24">
+        <f>MIN(H24,I23)+I2</f>
+        <v>246</v>
+      </c>
+      <c r="J24">
+        <f>MIN(I24,J23)+J2</f>
+        <v>301</v>
+      </c>
+      <c r="K24">
+        <f>MIN(J24,K23)+K2</f>
+        <v>337</v>
+      </c>
+      <c r="L24">
+        <f>MIN(K24,L23)+L2</f>
+        <v>362</v>
+      </c>
+      <c r="M24">
+        <f>MIN(L24,M23)+M2</f>
+        <v>367</v>
+      </c>
+      <c r="N24">
+        <f>MIN(M24,N23)+N2</f>
+        <v>382</v>
+      </c>
+      <c r="O24">
+        <f>MIN(N24,O23)+O2</f>
+        <v>438</v>
+      </c>
+      <c r="P24">
+        <f>MIN(O24,P23)+P2</f>
+        <v>496</v>
+      </c>
+      <c r="Q24">
+        <f>MIN(P24,Q23)+Q2</f>
+        <v>563</v>
+      </c>
+      <c r="R24">
+        <f>MIN(Q24,R23)+R2</f>
+        <v>587</v>
+      </c>
+      <c r="S24">
+        <f>MIN(R24,S23)+S2</f>
+        <v>625</v>
+      </c>
+      <c r="T24">
+        <f>MIN(S24,T23)+T2</f>
+        <v>683</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <f t="shared" ref="A25:A42" si="1">A3+A24</f>
+        <v>170</v>
+      </c>
+      <c r="B25">
+        <f>MIN(A25,B24)+B3</f>
+        <v>219</v>
+      </c>
+      <c r="C25">
+        <f>MIN(B25,C24)+C3</f>
+        <v>202</v>
+      </c>
+      <c r="D25">
+        <f>MIN(C25,D24)+D3</f>
+        <v>213</v>
+      </c>
+      <c r="E25" s="3">
+        <f>MIN(D25,E24)+E3</f>
+        <v>237</v>
+      </c>
+      <c r="F25" s="12">
+        <f t="shared" ref="F25:F31" si="2">F3+F24</f>
+        <v>272</v>
+      </c>
+      <c r="G25">
+        <f>MIN(F25,G24)+G3</f>
+        <v>292</v>
+      </c>
+      <c r="H25">
+        <f>MIN(G25,H24)+H3</f>
+        <v>226</v>
+      </c>
+      <c r="I25">
+        <f>MIN(H25,I24)+I3</f>
+        <v>276</v>
+      </c>
+      <c r="J25">
+        <f>MIN(I25,J24)+J3</f>
+        <v>302</v>
+      </c>
+      <c r="K25">
+        <f>MIN(J25,K24)+K3</f>
+        <v>311</v>
+      </c>
+      <c r="L25">
+        <f>MIN(K25,L24)+L3</f>
+        <v>334</v>
+      </c>
+      <c r="M25">
+        <f>MIN(L25,M24)+M3</f>
+        <v>397</v>
+      </c>
+      <c r="N25">
+        <f>MIN(M25,N24)+N3</f>
+        <v>472</v>
+      </c>
+      <c r="O25">
+        <f>MIN(N25,O24)+O3</f>
+        <v>485</v>
+      </c>
+      <c r="P25">
+        <f>MIN(O25,P24)+P3</f>
+        <v>581</v>
+      </c>
+      <c r="Q25">
+        <f>MIN(P25,Q24)+Q3</f>
+        <v>602</v>
+      </c>
+      <c r="R25">
+        <f>MIN(Q25,R24)+R3</f>
+        <v>683</v>
+      </c>
+      <c r="S25">
+        <f>MIN(R25,S24)+S3</f>
+        <v>671</v>
+      </c>
+      <c r="T25" s="2">
+        <f>MIN(S25,T24)+T3</f>
+        <v>739</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="12">
+        <f t="shared" si="1"/>
+        <v>177</v>
+      </c>
+      <c r="B26">
+        <f>MIN(A26,B25)+B4</f>
+        <v>273</v>
+      </c>
+      <c r="C26">
+        <f>MIN(B26,C25)+C4</f>
+        <v>208</v>
+      </c>
+      <c r="D26">
+        <f>MIN(C26,D25)+D4</f>
+        <v>217</v>
+      </c>
+      <c r="E26" s="3">
+        <f>MIN(D26,E25)+E4</f>
+        <v>303</v>
+      </c>
+      <c r="F26" s="12">
+        <f t="shared" si="2"/>
+        <v>295</v>
+      </c>
+      <c r="G26">
+        <f>MIN(F26,G25)+G4</f>
+        <v>361</v>
+      </c>
+      <c r="H26">
+        <f>MIN(G26,H25)+H4</f>
+        <v>244</v>
+      </c>
+      <c r="I26">
+        <f>MIN(H26,I25)+I4</f>
+        <v>269</v>
+      </c>
+      <c r="J26">
+        <f>MIN(I26,J25)+J4</f>
+        <v>274</v>
+      </c>
+      <c r="K26">
+        <f>MIN(J26,K25)+K4</f>
+        <v>334</v>
+      </c>
+      <c r="L26" s="14">
+        <f t="shared" ref="L26:N26" si="3">L4+K26</f>
+        <v>359</v>
+      </c>
+      <c r="M26" s="14">
+        <f t="shared" si="3"/>
+        <v>361</v>
+      </c>
+      <c r="N26" s="14">
+        <f t="shared" si="3"/>
+        <v>432</v>
+      </c>
+      <c r="O26" s="12">
+        <f t="shared" ref="O26:O36" si="4">O4+O25</f>
+        <v>583</v>
+      </c>
+      <c r="P26">
+        <f>MIN(O26,P25)+P4</f>
+        <v>659</v>
+      </c>
+      <c r="Q26">
+        <f>MIN(P26,Q25)+Q4</f>
+        <v>666</v>
+      </c>
+      <c r="R26">
+        <f>MIN(Q26,R25)+R4</f>
+        <v>736</v>
+      </c>
+      <c r="S26">
+        <f>MIN(R26,S25)+S4</f>
+        <v>764</v>
+      </c>
+      <c r="T26" s="2">
+        <f>MIN(S26,T25)+T4</f>
+        <v>814</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" s="12">
+        <f t="shared" si="1"/>
+        <v>187</v>
+      </c>
+      <c r="B27">
+        <f>MIN(A27,B26)+B5</f>
+        <v>206</v>
+      </c>
+      <c r="C27">
+        <f>MIN(B27,C26)+C5</f>
+        <v>248</v>
+      </c>
+      <c r="D27">
+        <f>MIN(C27,D26)+D5</f>
+        <v>228</v>
+      </c>
+      <c r="E27" s="3">
+        <f>MIN(D27,E26)+E5</f>
+        <v>317</v>
+      </c>
+      <c r="F27" s="12">
+        <f t="shared" si="2"/>
+        <v>378</v>
+      </c>
+      <c r="G27">
+        <f>MIN(F27,G26)+G5</f>
+        <v>454</v>
+      </c>
+      <c r="H27">
+        <f>MIN(G27,H26)+H5</f>
+        <v>277</v>
+      </c>
+      <c r="I27">
+        <f>MIN(H27,I26)+I5</f>
+        <v>339</v>
+      </c>
+      <c r="J27">
+        <f>MIN(I27,J26)+J5</f>
+        <v>372</v>
+      </c>
+      <c r="K27">
+        <f>MIN(J27,K26)+K5</f>
+        <v>337</v>
+      </c>
+      <c r="L27">
+        <f>MIN(K27,L26)+L5</f>
+        <v>399</v>
+      </c>
+      <c r="M27">
+        <f>MIN(L27,M26)+M5</f>
+        <v>406</v>
+      </c>
+      <c r="N27" s="3">
+        <f>MIN(M27,N26)+N5</f>
+        <v>501</v>
+      </c>
+      <c r="O27" s="12">
+        <f t="shared" si="4"/>
+        <v>664</v>
+      </c>
+      <c r="P27">
+        <f>MIN(O27,P26)+P5</f>
+        <v>677</v>
+      </c>
+      <c r="Q27">
+        <f>MIN(P27,Q26)+Q5</f>
+        <v>720</v>
+      </c>
+      <c r="R27">
+        <f>MIN(Q27,R26)+R5</f>
+        <v>750</v>
+      </c>
+      <c r="S27">
+        <f>MIN(R27,S26)+S5</f>
+        <v>837</v>
+      </c>
+      <c r="T27" s="2">
+        <f>MIN(S27,T26)+T5</f>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A28" s="12">
+        <f t="shared" si="1"/>
+        <v>283</v>
+      </c>
+      <c r="B28">
+        <f>MIN(A28,B27)+B6</f>
+        <v>286</v>
+      </c>
+      <c r="C28">
+        <f>MIN(B28,C27)+C6</f>
+        <v>305</v>
+      </c>
+      <c r="D28">
+        <f>MIN(C28,D27)+D6</f>
+        <v>297</v>
+      </c>
+      <c r="E28" s="3">
+        <f>MIN(D28,E27)+E6</f>
+        <v>328</v>
+      </c>
+      <c r="F28" s="12">
+        <f t="shared" si="2"/>
+        <v>417</v>
+      </c>
+      <c r="G28">
+        <f>MIN(F28,G27)+G6</f>
+        <v>424</v>
+      </c>
+      <c r="H28">
+        <f>MIN(G28,H27)+H6</f>
+        <v>326</v>
+      </c>
+      <c r="I28">
+        <f>MIN(H28,I27)+I6</f>
+        <v>416</v>
+      </c>
+      <c r="J28">
+        <f>MIN(I28,J27)+J6</f>
+        <v>389</v>
+      </c>
+      <c r="K28">
+        <f>MIN(J28,K27)+K6</f>
+        <v>357</v>
+      </c>
+      <c r="L28">
+        <f>MIN(K28,L27)+L6</f>
+        <v>413</v>
+      </c>
+      <c r="M28">
+        <f>MIN(L28,M27)+M6</f>
+        <v>468</v>
+      </c>
+      <c r="N28" s="3">
+        <f>MIN(M28,N27)+N6</f>
+        <v>480</v>
+      </c>
+      <c r="O28" s="12">
+        <f t="shared" si="4"/>
+        <v>703</v>
+      </c>
+      <c r="P28">
+        <f>MIN(O28,P27)+P6</f>
+        <v>758</v>
+      </c>
+      <c r="Q28">
+        <f>MIN(P28,Q27)+Q6</f>
+        <v>802</v>
+      </c>
+      <c r="R28">
+        <f>MIN(Q28,R27)+R6</f>
+        <v>780</v>
+      </c>
+      <c r="S28">
+        <f>MIN(R28,S27)+S6</f>
+        <v>851</v>
+      </c>
+      <c r="T28" s="2">
+        <f>MIN(S28,T27)+T6</f>
+        <v>921</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="12">
+        <f t="shared" si="1"/>
+        <v>312</v>
+      </c>
+      <c r="B29">
+        <f>MIN(A29,B28)+B7</f>
+        <v>305</v>
+      </c>
+      <c r="C29">
+        <f>MIN(B29,C28)+C7</f>
+        <v>340</v>
+      </c>
+      <c r="D29">
+        <f>MIN(C29,D28)+D7</f>
+        <v>361</v>
+      </c>
+      <c r="E29" s="3">
+        <f>MIN(D29,E28)+E7</f>
+        <v>348</v>
+      </c>
+      <c r="F29" s="12">
+        <f t="shared" si="2"/>
+        <v>505</v>
+      </c>
+      <c r="G29">
+        <f>MIN(F29,G28)+G7</f>
+        <v>513</v>
+      </c>
+      <c r="H29">
+        <f>MIN(G29,H28)+H7</f>
+        <v>328</v>
+      </c>
+      <c r="I29">
+        <f>MIN(H29,I28)+I7</f>
+        <v>345</v>
+      </c>
+      <c r="J29">
+        <f>MIN(I29,J28)+J7</f>
+        <v>378</v>
+      </c>
+      <c r="K29">
+        <f>MIN(J29,K28)+K7</f>
+        <v>446</v>
+      </c>
+      <c r="L29">
+        <f>MIN(K29,L28)+L7</f>
+        <v>429</v>
+      </c>
+      <c r="M29">
+        <f>MIN(L29,M28)+M7</f>
+        <v>431</v>
+      </c>
+      <c r="N29" s="3">
+        <f>MIN(M29,N28)+N7</f>
+        <v>518</v>
+      </c>
+      <c r="O29" s="12">
+        <f t="shared" si="4"/>
+        <v>797</v>
+      </c>
+      <c r="P29">
+        <f>MIN(O29,P28)+P7</f>
+        <v>814</v>
+      </c>
+      <c r="Q29">
+        <f>MIN(P29,Q28)+Q7</f>
+        <v>820</v>
+      </c>
+      <c r="R29">
+        <f>MIN(Q29,R28)+R7</f>
+        <v>860</v>
+      </c>
+      <c r="S29">
+        <f>MIN(R29,S28)+S7</f>
+        <v>910</v>
+      </c>
+      <c r="T29" s="2">
+        <f>MIN(S29,T28)+T7</f>
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" s="12">
+        <f t="shared" si="1"/>
+        <v>349</v>
+      </c>
+      <c r="B30">
+        <f>MIN(A30,B29)+B8</f>
+        <v>353</v>
+      </c>
+      <c r="C30">
+        <f>MIN(B30,C29)+C8</f>
+        <v>415</v>
+      </c>
+      <c r="D30">
+        <f>MIN(C30,D29)+D8</f>
+        <v>410</v>
+      </c>
+      <c r="E30" s="3">
+        <f>MIN(D30,E29)+E8</f>
+        <v>392</v>
+      </c>
+      <c r="F30" s="12">
+        <f t="shared" si="2"/>
+        <v>518</v>
+      </c>
+      <c r="G30">
+        <f>MIN(F30,G29)+G8</f>
+        <v>550</v>
+      </c>
+      <c r="H30">
+        <f>MIN(G30,H29)+H8</f>
+        <v>354</v>
+      </c>
+      <c r="I30">
+        <f>MIN(H30,I29)+I8</f>
+        <v>386</v>
+      </c>
+      <c r="J30">
+        <f>MIN(I30,J29)+J8</f>
+        <v>433</v>
+      </c>
+      <c r="K30">
+        <f>MIN(J30,K29)+K8</f>
+        <v>440</v>
+      </c>
+      <c r="L30">
+        <f>MIN(K30,L29)+L8</f>
+        <v>455</v>
+      </c>
+      <c r="M30">
+        <f>MIN(L30,M29)+M8</f>
+        <v>515</v>
+      </c>
+      <c r="N30" s="3">
+        <f>MIN(M30,N29)+N8</f>
+        <v>545</v>
+      </c>
+      <c r="O30" s="12">
+        <f t="shared" si="4"/>
+        <v>838</v>
+      </c>
+      <c r="P30">
+        <f>MIN(O30,P29)+P8</f>
+        <v>908</v>
+      </c>
+      <c r="Q30">
+        <f>MIN(P30,Q29)+Q8</f>
+        <v>880</v>
+      </c>
+      <c r="R30">
+        <f>MIN(Q30,R29)+R8</f>
+        <v>911</v>
+      </c>
+      <c r="S30">
+        <f>MIN(R30,S29)+S8</f>
+        <v>980</v>
+      </c>
+      <c r="T30" s="2">
+        <f>MIN(S30,T29)+T8</f>
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" s="12">
+        <f t="shared" si="1"/>
+        <v>382</v>
+      </c>
+      <c r="B31">
+        <f>MIN(A31,B30)+B9</f>
+        <v>419</v>
+      </c>
+      <c r="C31">
+        <f>MIN(B31,C30)+C9</f>
+        <v>487</v>
+      </c>
+      <c r="D31">
+        <f>MIN(C31,D30)+D9</f>
+        <v>468</v>
+      </c>
+      <c r="E31" s="3">
+        <f>MIN(D31,E30)+E9</f>
+        <v>409</v>
+      </c>
+      <c r="F31" s="12">
+        <f t="shared" si="2"/>
+        <v>599</v>
+      </c>
+      <c r="G31">
+        <f>MIN(F31,G30)+G9</f>
+        <v>598</v>
+      </c>
+      <c r="H31">
+        <f>MIN(G31,H30)+H9</f>
+        <v>427</v>
+      </c>
+      <c r="I31">
+        <f>MIN(H31,I30)+I9</f>
+        <v>486</v>
+      </c>
+      <c r="J31">
+        <f>MIN(I31,J30)+J9</f>
+        <v>503</v>
+      </c>
+      <c r="K31">
+        <f>MIN(J31,K30)+K9</f>
+        <v>524</v>
+      </c>
+      <c r="L31">
+        <f>MIN(K31,L30)+L9</f>
+        <v>522</v>
+      </c>
+      <c r="M31">
+        <f>MIN(L31,M30)+M9</f>
+        <v>545</v>
+      </c>
+      <c r="N31" s="3">
+        <f>MIN(M31,N30)+N9</f>
+        <v>630</v>
+      </c>
+      <c r="O31" s="12">
+        <f t="shared" si="4"/>
+        <v>936</v>
+      </c>
+      <c r="P31">
+        <f>MIN(O31,P30)+P9</f>
+        <v>989</v>
+      </c>
+      <c r="Q31">
+        <f>MIN(P31,Q30)+Q9</f>
+        <v>922</v>
+      </c>
+      <c r="R31">
+        <f>MIN(Q31,R30)+R9</f>
+        <v>927</v>
+      </c>
+      <c r="S31">
+        <f>MIN(R31,S30)+S9</f>
+        <v>934</v>
+      </c>
+      <c r="T31" s="2">
+        <f>MIN(S31,T30)+T9</f>
+        <v>945</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12">
+        <f t="shared" si="1"/>
+        <v>479</v>
+      </c>
+      <c r="B32">
+        <f>MIN(A32,B31)+B10</f>
+        <v>506</v>
+      </c>
+      <c r="C32" s="6">
+        <f>MIN(B32,C31)+C10</f>
+        <v>516</v>
+      </c>
+      <c r="D32" s="6">
+        <f>MIN(C32,D31)+D10</f>
+        <v>538</v>
+      </c>
+      <c r="E32" s="8">
+        <f>MIN(D32,E31)+E10</f>
+        <v>454</v>
+      </c>
+      <c r="F32" s="12">
+        <f t="shared" ref="F32" si="5">F10+F31</f>
+        <v>663</v>
+      </c>
+      <c r="G32">
+        <f>MIN(F32,G31)+G10</f>
+        <v>651</v>
+      </c>
+      <c r="H32">
+        <f>MIN(G32,H31)+H10</f>
+        <v>502</v>
+      </c>
+      <c r="I32">
+        <f>MIN(H32,I31)+I10</f>
+        <v>515</v>
+      </c>
+      <c r="J32">
+        <f>MIN(I32,J31)+J10</f>
+        <v>519</v>
+      </c>
+      <c r="K32">
+        <f>MIN(J32,K31)+K10</f>
+        <v>545</v>
+      </c>
+      <c r="L32">
+        <f>MIN(K32,L31)+L10</f>
+        <v>575</v>
+      </c>
+      <c r="M32">
+        <f>MIN(L32,M31)+M10</f>
+        <v>558</v>
+      </c>
+      <c r="N32" s="3">
+        <f>MIN(M32,N31)+N10</f>
+        <v>630</v>
+      </c>
+      <c r="O32" s="12">
+        <f t="shared" si="4"/>
+        <v>1016</v>
+      </c>
+      <c r="P32">
+        <f>MIN(O32,P31)+P10</f>
+        <v>1053</v>
+      </c>
+      <c r="Q32">
+        <f>MIN(P32,Q31)+Q10</f>
+        <v>1002</v>
+      </c>
+      <c r="R32">
+        <f>MIN(Q32,R31)+R10</f>
+        <v>973</v>
+      </c>
+      <c r="S32">
+        <f>MIN(R32,S31)+S10</f>
+        <v>1000</v>
+      </c>
+      <c r="T32" s="2">
+        <f>MIN(S32,T31)+T10</f>
+        <v>980</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="12">
+        <f t="shared" si="1"/>
+        <v>553</v>
+      </c>
+      <c r="B33">
+        <f>MIN(A33,B32)+B11</f>
+        <v>533</v>
+      </c>
+      <c r="C33" s="14">
+        <f>C11+B33</f>
+        <v>615</v>
+      </c>
+      <c r="D33" s="14">
+        <f t="shared" ref="D33:E33" si="6">D11+C33</f>
+        <v>649</v>
+      </c>
+      <c r="E33" s="14">
+        <f t="shared" si="6"/>
+        <v>681</v>
+      </c>
+      <c r="F33">
+        <f>MIN(E33,F32)+F11</f>
+        <v>667</v>
+      </c>
+      <c r="G33">
+        <f>MIN(F33,G32)+G11</f>
+        <v>728</v>
+      </c>
+      <c r="H33">
+        <f>MIN(G33,H32)+H11</f>
+        <v>543</v>
+      </c>
+      <c r="I33">
+        <f>MIN(H33,I32)+I11</f>
+        <v>589</v>
+      </c>
+      <c r="J33">
+        <f>MIN(I33,J32)+J11</f>
+        <v>553</v>
+      </c>
+      <c r="K33">
+        <f>MIN(J33,K32)+K11</f>
+        <v>637</v>
+      </c>
+      <c r="L33">
+        <f>MIN(K33,L32)+L11</f>
+        <v>605</v>
+      </c>
+      <c r="M33">
+        <f>MIN(L33,M32)+M11</f>
+        <v>602</v>
+      </c>
+      <c r="N33" s="3">
+        <f>MIN(M33,N32)+N11</f>
+        <v>695</v>
+      </c>
+      <c r="O33" s="12">
+        <f t="shared" si="4"/>
+        <v>1052</v>
+      </c>
+      <c r="P33">
+        <f>MIN(O33,P32)+P11</f>
+        <v>1090</v>
+      </c>
+      <c r="Q33">
+        <f>MIN(P33,Q32)+Q11</f>
+        <v>1024</v>
+      </c>
+      <c r="R33">
+        <f>MIN(Q33,R32)+R11</f>
+        <v>989</v>
+      </c>
+      <c r="S33">
+        <f>MIN(R33,S32)+S11</f>
+        <v>1056</v>
+      </c>
+      <c r="T33" s="2">
+        <f>MIN(S33,T32)+T11</f>
+        <v>981</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A34" s="12">
+        <f t="shared" si="1"/>
+        <v>558</v>
+      </c>
+      <c r="B34">
+        <f>MIN(A34,B33)+B12</f>
+        <v>614</v>
+      </c>
+      <c r="C34">
+        <f>MIN(B34,C33)+C12</f>
+        <v>689</v>
+      </c>
+      <c r="D34">
+        <f>MIN(C34,D33)+D12</f>
+        <v>687</v>
+      </c>
+      <c r="E34">
+        <f>MIN(D34,E33)+E12</f>
+        <v>701</v>
+      </c>
+      <c r="F34">
+        <f>MIN(E34,F33)+F12</f>
+        <v>760</v>
+      </c>
+      <c r="G34">
+        <f>MIN(F34,G33)+G12</f>
+        <v>767</v>
+      </c>
+      <c r="H34">
+        <f>MIN(G34,H33)+H12</f>
+        <v>618</v>
+      </c>
+      <c r="I34">
+        <f>MIN(H34,I33)+I12</f>
+        <v>650</v>
+      </c>
+      <c r="J34">
+        <f>MIN(I34,J33)+J12</f>
+        <v>610</v>
+      </c>
+      <c r="K34">
+        <f>MIN(J34,K33)+K12</f>
+        <v>680</v>
+      </c>
+      <c r="L34">
+        <f>MIN(K34,L33)+L12</f>
+        <v>694</v>
+      </c>
+      <c r="M34">
+        <f>MIN(L34,M33)+M12</f>
+        <v>653</v>
+      </c>
+      <c r="N34" s="3">
+        <f>MIN(M34,N33)+N12</f>
+        <v>745</v>
+      </c>
+      <c r="O34" s="12">
+        <f t="shared" si="4"/>
+        <v>1067</v>
+      </c>
+      <c r="P34">
+        <f>MIN(O34,P33)+P12</f>
+        <v>1121</v>
+      </c>
+      <c r="Q34">
+        <f>MIN(P34,Q33)+Q12</f>
+        <v>1113</v>
+      </c>
+      <c r="R34">
+        <f>MIN(Q34,R33)+R12</f>
+        <v>1033</v>
+      </c>
+      <c r="S34">
+        <f>MIN(R34,S33)+S12</f>
+        <v>1108</v>
+      </c>
+      <c r="T34" s="2">
+        <f>MIN(S34,T33)+T12</f>
+        <v>988</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A35" s="12">
+        <f t="shared" si="1"/>
+        <v>643</v>
+      </c>
+      <c r="B35">
+        <f>MIN(A35,B34)+B13</f>
+        <v>680</v>
+      </c>
+      <c r="C35">
+        <f>MIN(B35,C34)+C13</f>
+        <v>705</v>
+      </c>
+      <c r="D35">
+        <f>MIN(C35,D34)+D13</f>
+        <v>759</v>
+      </c>
+      <c r="E35">
+        <f>MIN(D35,E34)+E13</f>
+        <v>801</v>
+      </c>
+      <c r="F35">
+        <f>MIN(E35,F34)+F13</f>
+        <v>809</v>
+      </c>
+      <c r="G35">
+        <f>MIN(F35,G34)+G13</f>
+        <v>862</v>
+      </c>
+      <c r="H35">
+        <f>MIN(G35,H34)+H13</f>
+        <v>700</v>
+      </c>
+      <c r="I35">
+        <f>MIN(H35,I34)+I13</f>
+        <v>710</v>
+      </c>
+      <c r="J35">
+        <f>MIN(I35,J34)+J13</f>
+        <v>614</v>
+      </c>
+      <c r="K35">
+        <f>MIN(J35,K34)+K13</f>
+        <v>646</v>
+      </c>
+      <c r="L35">
+        <f>MIN(K35,L34)+L13</f>
+        <v>684</v>
+      </c>
+      <c r="M35">
+        <f>MIN(L35,M34)+M13</f>
+        <v>683</v>
+      </c>
+      <c r="N35" s="3">
+        <f>MIN(M35,N34)+N13</f>
+        <v>772</v>
+      </c>
+      <c r="O35" s="12">
+        <f t="shared" si="4"/>
+        <v>1151</v>
+      </c>
+      <c r="P35">
+        <f>MIN(O35,P34)+P13</f>
+        <v>1208</v>
+      </c>
+      <c r="Q35">
+        <f>MIN(P35,Q34)+Q13</f>
+        <v>1125</v>
+      </c>
+      <c r="R35">
+        <f>MIN(Q35,R34)+R13</f>
+        <v>1038</v>
+      </c>
+      <c r="S35">
+        <f>MIN(R35,S34)+S13</f>
+        <v>1050</v>
+      </c>
+      <c r="T35" s="2">
+        <f>MIN(S35,T34)+T13</f>
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <f t="shared" si="1"/>
+        <v>711</v>
+      </c>
+      <c r="B36">
+        <f>MIN(A36,B35)+B14</f>
+        <v>713</v>
+      </c>
+      <c r="C36">
+        <f>MIN(B36,C35)+C14</f>
+        <v>740</v>
+      </c>
+      <c r="D36">
+        <f>MIN(C36,D35)+D14</f>
+        <v>789</v>
+      </c>
+      <c r="E36">
+        <f>MIN(D36,E35)+E14</f>
+        <v>867</v>
+      </c>
+      <c r="F36">
+        <f>MIN(E36,F35)+F14</f>
+        <v>833</v>
+      </c>
+      <c r="G36">
+        <f>MIN(F36,G35)+G14</f>
+        <v>863</v>
+      </c>
+      <c r="H36">
+        <f>MIN(G36,H35)+H14</f>
+        <v>754</v>
+      </c>
+      <c r="I36">
+        <f>MIN(H36,I35)+I14</f>
+        <v>795</v>
+      </c>
+      <c r="J36">
+        <f>MIN(I36,J35)+J14</f>
+        <v>699</v>
+      </c>
+      <c r="K36">
+        <f>MIN(J36,K35)+K14</f>
+        <v>688</v>
+      </c>
+      <c r="L36">
+        <f>MIN(K36,L35)+L14</f>
+        <v>753</v>
+      </c>
+      <c r="M36">
+        <f>MIN(L36,M35)+M14</f>
+        <v>705</v>
+      </c>
+      <c r="N36" s="10">
+        <f>MIN(M36,N35)+N14</f>
+        <v>753</v>
+      </c>
+      <c r="O36" s="12">
+        <f t="shared" si="4"/>
+        <v>1226</v>
+      </c>
+      <c r="P36">
+        <f>MIN(O36,P35)+P14</f>
+        <v>1287</v>
+      </c>
+      <c r="Q36">
+        <f>MIN(P36,Q35)+Q14</f>
+        <v>1194</v>
+      </c>
+      <c r="R36">
+        <f>MIN(Q36,R35)+R14</f>
+        <v>1106</v>
+      </c>
+      <c r="S36">
+        <f>MIN(R36,S35)+S14</f>
+        <v>1137</v>
+      </c>
+      <c r="T36" s="2">
+        <f>MIN(S36,T35)+T14</f>
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A37" s="12">
+        <f t="shared" si="1"/>
+        <v>780</v>
+      </c>
+      <c r="B37">
+        <f>MIN(A37,B36)+B15</f>
+        <v>789</v>
+      </c>
+      <c r="C37">
+        <f>MIN(B37,C36)+C15</f>
+        <v>831</v>
+      </c>
+      <c r="D37">
+        <f>MIN(C37,D36)+D15</f>
+        <v>797</v>
+      </c>
+      <c r="E37">
+        <f>MIN(D37,E36)+E15</f>
+        <v>851</v>
+      </c>
+      <c r="F37">
+        <f>MIN(E37,F36)+F15</f>
+        <v>853</v>
+      </c>
+      <c r="G37" s="14">
+        <f t="shared" ref="G37:I37" si="7">G15+F37</f>
+        <v>872</v>
+      </c>
+      <c r="H37" s="14">
+        <f t="shared" si="7"/>
+        <v>930</v>
+      </c>
+      <c r="I37" s="14">
+        <f t="shared" si="7"/>
+        <v>934</v>
+      </c>
+      <c r="J37" s="12">
+        <f t="shared" ref="J37:J41" si="8">J15+J36</f>
+        <v>708</v>
+      </c>
+      <c r="K37">
+        <f>MIN(J37,K36)+K15</f>
+        <v>738</v>
+      </c>
+      <c r="L37">
+        <f>MIN(K37,L36)+L15</f>
+        <v>749</v>
+      </c>
+      <c r="M37" s="14">
+        <f t="shared" ref="M37:N37" si="9">M15+L37</f>
+        <v>822</v>
+      </c>
+      <c r="N37" s="14">
+        <f t="shared" si="9"/>
+        <v>835</v>
+      </c>
+      <c r="O37" s="12">
+        <f t="shared" ref="O37" si="10">O15+O36</f>
+        <v>1262</v>
+      </c>
+      <c r="P37">
+        <f>MIN(O37,P36)+P15</f>
+        <v>1287</v>
+      </c>
+      <c r="Q37">
+        <f>MIN(P37,Q36)+Q15</f>
+        <v>1272</v>
+      </c>
+      <c r="R37">
+        <f>MIN(Q37,R36)+R15</f>
+        <v>1173</v>
+      </c>
+      <c r="S37">
+        <f>MIN(R37,S36)+S15</f>
+        <v>1233</v>
+      </c>
+      <c r="T37" s="2">
+        <f>MIN(S37,T36)+T15</f>
+        <v>1203</v>
+      </c>
+      <c r="W37" s="17">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A38" s="12">
+        <f t="shared" si="1"/>
+        <v>790</v>
+      </c>
+      <c r="B38">
+        <f>MIN(A38,B37)+B16</f>
+        <v>882</v>
+      </c>
+      <c r="C38">
+        <f>MIN(B38,C37)+C16</f>
+        <v>843</v>
+      </c>
+      <c r="D38">
+        <f>MIN(C38,D37)+D16</f>
+        <v>867</v>
+      </c>
+      <c r="E38">
+        <f>MIN(D38,E37)+E16</f>
+        <v>947</v>
+      </c>
+      <c r="F38">
+        <f>MIN(E38,F37)+F16</f>
+        <v>946</v>
+      </c>
+      <c r="G38">
+        <f>MIN(F38,G37)+G16</f>
+        <v>911</v>
+      </c>
+      <c r="H38">
+        <f>MIN(G38,H37)+H16</f>
+        <v>964</v>
+      </c>
+      <c r="I38" s="3">
+        <f>MIN(H38,I37)+I16</f>
+        <v>956</v>
+      </c>
+      <c r="J38" s="12">
+        <f t="shared" si="8"/>
+        <v>782</v>
+      </c>
+      <c r="K38">
+        <f>MIN(J38,K37)+K16</f>
+        <v>798</v>
+      </c>
+      <c r="L38">
+        <f>MIN(K38,L37)+L16</f>
+        <v>796</v>
+      </c>
+      <c r="M38">
+        <f>MIN(L38,M37)+M16</f>
+        <v>882</v>
+      </c>
+      <c r="N38">
+        <f>MIN(M38,N37)+N16</f>
+        <v>885</v>
+      </c>
+      <c r="O38">
+        <f>MIN(N38,O37)+O16</f>
+        <v>953</v>
+      </c>
+      <c r="P38">
+        <f>MIN(O38,P37)+P16</f>
+        <v>1011</v>
+      </c>
+      <c r="Q38">
+        <f>MIN(P38,Q37)+Q16</f>
+        <v>1022</v>
+      </c>
+      <c r="R38">
+        <f>MIN(Q38,R37)+R16</f>
+        <v>1067</v>
+      </c>
+      <c r="S38">
+        <f>MIN(R38,S37)+S16</f>
+        <v>1072</v>
+      </c>
+      <c r="T38" s="2">
+        <f>MIN(S38,T37)+T16</f>
+        <v>1122</v>
+      </c>
+      <c r="W38" s="17">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A39" s="12">
+        <f t="shared" si="1"/>
+        <v>839</v>
+      </c>
+      <c r="B39">
+        <f>MIN(A39,B38)+B17</f>
+        <v>869</v>
+      </c>
+      <c r="C39">
+        <f>MIN(B39,C38)+C17</f>
+        <v>862</v>
+      </c>
+      <c r="D39">
+        <f>MIN(C39,D38)+D17</f>
+        <v>917</v>
+      </c>
+      <c r="E39">
+        <f>MIN(D39,E38)+E17</f>
+        <v>941</v>
+      </c>
+      <c r="F39">
+        <f>MIN(E39,F38)+F17</f>
+        <v>1005</v>
+      </c>
+      <c r="G39">
+        <f>MIN(F39,G38)+G17</f>
+        <v>941</v>
+      </c>
+      <c r="H39">
+        <f>MIN(G39,H38)+H17</f>
+        <v>974</v>
+      </c>
+      <c r="I39" s="3">
+        <f>MIN(H39,I38)+I17</f>
+        <v>959</v>
+      </c>
+      <c r="J39" s="12">
+        <f t="shared" si="8"/>
+        <v>869</v>
+      </c>
+      <c r="K39">
+        <f>MIN(J39,K38)+K17</f>
+        <v>883</v>
+      </c>
+      <c r="L39">
+        <f>MIN(K39,L38)+L17</f>
+        <v>864</v>
+      </c>
+      <c r="M39">
+        <f>MIN(L39,M38)+M17</f>
+        <v>906</v>
+      </c>
+      <c r="N39">
+        <f>MIN(M39,N38)+N17</f>
+        <v>929</v>
+      </c>
+      <c r="O39">
+        <f>MIN(N39,O38)+O17</f>
+        <v>969</v>
+      </c>
+      <c r="P39">
+        <f>MIN(O39,P38)+P17</f>
+        <v>1050</v>
+      </c>
+      <c r="Q39">
+        <f>MIN(P39,Q38)+Q17</f>
+        <v>1047</v>
+      </c>
+      <c r="R39">
+        <f>MIN(Q39,R38)+R17</f>
+        <v>1109</v>
+      </c>
+      <c r="S39">
+        <f>MIN(R39,S38)+S17</f>
+        <v>1116</v>
+      </c>
+      <c r="T39" s="2">
+        <f>MIN(S39,T38)+T17</f>
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A40" s="12">
+        <f t="shared" si="1"/>
+        <v>929</v>
+      </c>
+      <c r="B40">
+        <f>MIN(A40,B39)+B18</f>
+        <v>904</v>
+      </c>
+      <c r="C40">
+        <f>MIN(B40,C39)+C18</f>
+        <v>903</v>
+      </c>
+      <c r="D40">
+        <f>MIN(C40,D39)+D18</f>
+        <v>991</v>
+      </c>
+      <c r="E40">
+        <f>MIN(D40,E39)+E18</f>
+        <v>991</v>
+      </c>
+      <c r="F40">
+        <f>MIN(E40,F39)+F18</f>
+        <v>1009</v>
+      </c>
+      <c r="G40">
+        <f>MIN(F40,G39)+G18</f>
+        <v>1000</v>
+      </c>
+      <c r="H40">
+        <f>MIN(G40,H39)+H18</f>
+        <v>1041</v>
+      </c>
+      <c r="I40" s="3">
+        <f>MIN(H40,I39)+I18</f>
+        <v>1049</v>
+      </c>
+      <c r="J40" s="12">
+        <f t="shared" si="8"/>
+        <v>967</v>
+      </c>
+      <c r="K40">
+        <f>MIN(J40,K39)+K18</f>
+        <v>975</v>
+      </c>
+      <c r="L40">
+        <f>MIN(K40,L39)+L18</f>
+        <v>950</v>
+      </c>
+      <c r="M40">
+        <f>MIN(L40,M39)+M18</f>
+        <v>1004</v>
+      </c>
+      <c r="N40">
+        <f>MIN(M40,N39)+N18</f>
+        <v>936</v>
+      </c>
+      <c r="O40">
+        <f>MIN(N40,O39)+O18</f>
+        <v>945</v>
+      </c>
+      <c r="P40">
+        <f>MIN(O40,P39)+P18</f>
+        <v>960</v>
+      </c>
+      <c r="Q40">
+        <f>MIN(P40,Q39)+Q18</f>
+        <v>1047</v>
+      </c>
+      <c r="R40">
+        <f>MIN(Q40,R39)+R18</f>
+        <v>1087</v>
+      </c>
+      <c r="S40">
+        <f>MIN(R40,S39)+S18</f>
+        <v>1126</v>
+      </c>
+      <c r="T40" s="2">
+        <f>MIN(S40,T39)+T18</f>
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A41" s="12">
+        <f t="shared" si="1"/>
+        <v>986</v>
+      </c>
+      <c r="B41">
+        <f>MIN(A41,B40)+B19</f>
+        <v>964</v>
+      </c>
+      <c r="C41">
+        <f>MIN(B41,C40)+C19</f>
+        <v>997</v>
+      </c>
+      <c r="D41">
+        <f>MIN(C41,D40)+D19</f>
+        <v>1007</v>
+      </c>
+      <c r="E41">
+        <f>MIN(D41,E40)+E19</f>
+        <v>1051</v>
+      </c>
+      <c r="F41">
+        <f>MIN(E41,F40)+F19</f>
+        <v>1095</v>
+      </c>
+      <c r="G41">
+        <f>MIN(F41,G40)+G19</f>
+        <v>1010</v>
+      </c>
+      <c r="H41">
+        <f>MIN(G41,H40)+H19</f>
+        <v>1107</v>
+      </c>
+      <c r="I41" s="3">
+        <f>MIN(H41,I40)+I19</f>
+        <v>1126</v>
+      </c>
+      <c r="J41" s="12">
+        <f t="shared" si="8"/>
+        <v>1022</v>
+      </c>
+      <c r="K41">
+        <f>MIN(J41,K40)+K19</f>
+        <v>1042</v>
+      </c>
+      <c r="L41">
+        <f>MIN(K41,L40)+L19</f>
+        <v>1013</v>
+      </c>
+      <c r="M41">
+        <f>MIN(L41,M40)+M19</f>
+        <v>1028</v>
+      </c>
+      <c r="N41">
+        <f>MIN(M41,N40)+N19</f>
+        <v>937</v>
+      </c>
+      <c r="O41">
+        <f>MIN(N41,O40)+O19</f>
+        <v>1017</v>
+      </c>
+      <c r="P41">
+        <f>MIN(O41,P40)+P19</f>
+        <v>962</v>
+      </c>
+      <c r="Q41">
+        <f>MIN(P41,Q40)+Q19</f>
+        <v>1004</v>
+      </c>
+      <c r="R41">
+        <f>MIN(Q41,R40)+R19</f>
+        <v>1015</v>
+      </c>
+      <c r="S41">
+        <f>MIN(R41,S40)+S19</f>
+        <v>1110</v>
+      </c>
+      <c r="T41" s="2">
+        <f>MIN(S41,T40)+T19</f>
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
+        <f t="shared" si="1"/>
+        <v>1026</v>
+      </c>
+      <c r="B42" s="7">
+        <f>MIN(A42,B41)+B20</f>
+        <v>1030</v>
+      </c>
+      <c r="C42" s="7">
+        <f>MIN(B42,C41)+C20</f>
+        <v>1020</v>
+      </c>
+      <c r="D42" s="7">
+        <f>MIN(C42,D41)+D20</f>
+        <v>1008</v>
+      </c>
+      <c r="E42" s="7">
+        <f>MIN(D42,E41)+E20</f>
+        <v>1065</v>
+      </c>
+      <c r="F42" s="7">
+        <f>MIN(E42,F41)+F20</f>
+        <v>1120</v>
+      </c>
+      <c r="G42" s="7">
+        <f>MIN(F42,G41)+G20</f>
+        <v>1018</v>
+      </c>
+      <c r="H42" s="7">
+        <f>MIN(G42,H41)+H20</f>
+        <v>1026</v>
+      </c>
+      <c r="I42" s="9">
+        <f>MIN(H42,I41)+I20</f>
+        <v>1055</v>
+      </c>
+      <c r="J42" s="16">
+        <f t="shared" ref="J42" si="11">J20+J41</f>
+        <v>1068</v>
+      </c>
+      <c r="K42" s="7">
+        <f>MIN(J42,K41)+K20</f>
+        <v>1049</v>
+      </c>
+      <c r="L42" s="7">
+        <f>MIN(K42,L41)+L20</f>
+        <v>1106</v>
+      </c>
+      <c r="M42" s="7">
+        <f>MIN(L42,M41)+M20</f>
+        <v>1061</v>
+      </c>
+      <c r="N42" s="7">
+        <f>MIN(M42,N41)+N20</f>
+        <v>1018</v>
+      </c>
+      <c r="O42" s="7">
+        <f>MIN(N42,O41)+O20</f>
+        <v>1050</v>
+      </c>
+      <c r="P42" s="7">
+        <f>MIN(O42,P41)+P20</f>
+        <v>1048</v>
+      </c>
+      <c r="Q42" s="7">
+        <f>MIN(P42,Q41)+Q20</f>
+        <v>1010</v>
+      </c>
+      <c r="R42" s="7">
+        <f>MIN(Q42,R41)+R20</f>
+        <v>1069</v>
+      </c>
+      <c r="S42" s="7">
+        <f>MIN(R42,S41)+S20</f>
+        <v>1142</v>
+      </c>
+      <c r="T42" s="11">
+        <f>MIN(S42,T41)+T20</f>
+        <v>1216</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>